--- a/paper_data/main_model_predictions_data.xlsx
+++ b/paper_data/main_model_predictions_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5326694\OneDrive - UNSW\Desktop\PhD\PhD papers\light intensity paper\paper_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5326694\OneDrive - UNSW\Desktop\PhD\PhD papers\light intensity paper\paper_code\paper_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B47B24-9141-41E9-A095-1786FC776B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AED855A-1E72-42F5-8E84-DEC7531A80AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,24 @@
     <sheet name="Test" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$482</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$482</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Test!$N$1:$N$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Training!$N$1:$N$421</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1967,10 +1980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U482"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2035,7 +2049,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>458</v>
       </c>
@@ -2085,7 +2099,7 @@
         <v>3.4194869158454821E-14</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>459</v>
       </c>
@@ -2235,7 +2249,7 @@
         <v>5.8500000000000334</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>455</v>
       </c>
@@ -2285,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>456</v>
       </c>
@@ -2335,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>457</v>
       </c>
@@ -2535,7 +2549,7 @@
         <v>-4.0061077093071162E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>454</v>
       </c>
@@ -2635,7 +2649,7 @@
         <v>3.4825719324107181</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>453</v>
       </c>
@@ -2785,7 +2799,7 @@
         <v>1.53524020037071</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>451</v>
       </c>
@@ -2835,7 +2849,7 @@
         <v>-3.9968028886505642E-14</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>452</v>
       </c>
@@ -2935,7 +2949,7 @@
         <v>0.17372392498419309</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>450</v>
       </c>
@@ -2985,7 +2999,7 @@
         <v>-1.7763568394002501E-14</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>449</v>
       </c>
@@ -3035,7 +3049,7 @@
         <v>-1.243449787580175E-14</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>448</v>
       </c>
@@ -3085,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>447</v>
       </c>
@@ -3135,7 +3149,7 @@
         <v>-8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>445</v>
       </c>
@@ -3185,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>446</v>
       </c>
@@ -3235,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>442</v>
       </c>
@@ -3285,7 +3299,7 @@
         <v>8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>443</v>
       </c>
@@ -3335,7 +3349,7 @@
         <v>8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>444</v>
       </c>
@@ -3385,7 +3399,7 @@
         <v>8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>441</v>
       </c>
@@ -3435,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>437</v>
       </c>
@@ -3485,7 +3499,7 @@
         <v>8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>439</v>
       </c>
@@ -3535,7 +3549,7 @@
         <v>8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>440</v>
       </c>
@@ -3585,7 +3599,7 @@
         <v>8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>436</v>
       </c>
@@ -3635,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>435</v>
       </c>
@@ -3685,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>434</v>
       </c>
@@ -3735,7 +3749,7 @@
         <v>-8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>433</v>
       </c>
@@ -3785,7 +3799,7 @@
         <v>-8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>430</v>
       </c>
@@ -3835,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>431</v>
       </c>
@@ -3885,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>432</v>
       </c>
@@ -3935,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>427</v>
       </c>
@@ -3985,7 +3999,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>428</v>
       </c>
@@ -4035,7 +4049,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>429</v>
       </c>
@@ -4085,7 +4099,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>426</v>
       </c>
@@ -4135,7 +4149,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>424</v>
       </c>
@@ -4185,7 +4199,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>425</v>
       </c>
@@ -4235,7 +4249,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>421</v>
       </c>
@@ -4285,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>422</v>
       </c>
@@ -4335,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>423</v>
       </c>
@@ -4385,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>420</v>
       </c>
@@ -4435,7 +4449,7 @@
         <v>-1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>419</v>
       </c>
@@ -4485,7 +4499,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>418</v>
       </c>
@@ -4535,7 +4549,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>417</v>
       </c>
@@ -4585,7 +4599,7 @@
         <v>-1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>415</v>
       </c>
@@ -4635,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>416</v>
       </c>
@@ -4685,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>413</v>
       </c>
@@ -4735,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>414</v>
       </c>
@@ -4785,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>409</v>
       </c>
@@ -4835,7 +4849,7 @@
         <v>3.907985046680551E-14</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>410</v>
       </c>
@@ -4885,7 +4899,7 @@
         <v>3.907985046680551E-14</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>411</v>
       </c>
@@ -4935,7 +4949,7 @@
         <v>3.907985046680551E-14</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>412</v>
       </c>
@@ -4985,7 +4999,7 @@
         <v>3.907985046680551E-14</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>408</v>
       </c>
@@ -5085,7 +5099,7 @@
         <v>5.1340125124209202</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>407</v>
       </c>
@@ -5135,7 +5149,7 @@
         <v>-1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>405</v>
       </c>
@@ -5185,7 +5199,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>406</v>
       </c>
@@ -5235,7 +5249,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>404</v>
       </c>
@@ -5285,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>402</v>
       </c>
@@ -5335,7 +5349,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>403</v>
       </c>
@@ -5385,7 +5399,7 @@
         <v>1.06581410364015E-14</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>401</v>
       </c>
@@ -5485,7 +5499,7 @@
         <v>-20.277235216465812</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>398</v>
       </c>
@@ -5535,7 +5549,7 @@
         <v>-1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>399</v>
       </c>
@@ -5585,7 +5599,7 @@
         <v>-1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>400</v>
       </c>
@@ -5635,7 +5649,7 @@
         <v>-1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>397</v>
       </c>
@@ -5685,7 +5699,7 @@
         <v>-1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>396</v>
       </c>
@@ -5735,7 +5749,7 @@
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>393</v>
       </c>
@@ -5785,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>394</v>
       </c>
@@ -5835,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>395</v>
       </c>
@@ -6035,7 +6049,7 @@
         <v>-3.5064038440595482</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>391</v>
       </c>
@@ -6085,7 +6099,7 @@
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>392</v>
       </c>
@@ -6135,7 +6149,7 @@
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>390</v>
       </c>
@@ -6185,7 +6199,7 @@
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>388</v>
       </c>
@@ -6235,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>389</v>
       </c>
@@ -6335,7 +6349,7 @@
         <v>-30.56559549423271</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>387</v>
       </c>
@@ -6385,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>385</v>
       </c>
@@ -6435,7 +6449,7 @@
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>384</v>
       </c>
@@ -6535,7 +6549,7 @@
         <v>-4.3077308402661174</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>383</v>
       </c>
@@ -6585,7 +6599,7 @@
         <v>-1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>381</v>
       </c>
@@ -6635,7 +6649,7 @@
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>382</v>
       </c>
@@ -6685,7 +6699,7 @@
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>380</v>
       </c>
@@ -6735,7 +6749,7 @@
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>379</v>
       </c>
@@ -6785,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>378</v>
       </c>
@@ -6835,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>376</v>
       </c>
@@ -6885,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>377</v>
       </c>
@@ -6935,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>375</v>
       </c>
@@ -7085,7 +7099,7 @@
         <v>-2.932194831766552</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>371</v>
       </c>
@@ -7135,7 +7149,7 @@
         <v>-23.075000000000021</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>372</v>
       </c>
@@ -7185,7 +7199,7 @@
         <v>-16.575000000000021</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>373</v>
       </c>
@@ -7235,7 +7249,7 @@
         <v>44.524999999999977</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>374</v>
       </c>
@@ -7285,7 +7299,7 @@
         <v>-4.8750000000000142</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>370</v>
       </c>
@@ -7435,7 +7449,7 @@
         <v>-32.349777609959979</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>369</v>
       </c>
@@ -7485,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>368</v>
       </c>
@@ -7535,7 +7549,7 @@
         <v>-1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>367</v>
       </c>
@@ -7585,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>366</v>
       </c>
@@ -7635,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>365</v>
       </c>
@@ -7685,7 +7699,7 @@
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>363</v>
       </c>
@@ -7735,7 +7749,7 @@
         <v>-11.375</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>364</v>
       </c>
@@ -7785,7 +7799,7 @@
         <v>11.375</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>362</v>
       </c>
@@ -7835,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>360</v>
       </c>
@@ -7885,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>361</v>
       </c>
@@ -7935,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>358</v>
       </c>
@@ -7985,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>359</v>
       </c>
@@ -8035,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>357</v>
       </c>
@@ -8085,7 +8099,7 @@
         <v>-1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>356</v>
       </c>
@@ -8185,7 +8199,7 @@
         <v>4.7741379310339269</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>355</v>
       </c>
@@ -8235,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>354</v>
       </c>
@@ -8335,7 +8349,7 @@
         <v>7.9147134030196753</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>351</v>
       </c>
@@ -8385,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>352</v>
       </c>
@@ -8435,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>353</v>
       </c>
@@ -8485,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>350</v>
       </c>
@@ -8635,7 +8649,7 @@
         <v>13.85821409878915</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>349</v>
       </c>
@@ -8685,7 +8699,7 @@
         <v>-1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>348</v>
       </c>
@@ -8735,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>347</v>
       </c>
@@ -8785,7 +8799,7 @@
         <v>-7.1054273576010019E-15</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>346</v>
       </c>
@@ -8885,7 +8899,7 @@
         <v>17.4963926548009</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>344</v>
       </c>
@@ -8935,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>345</v>
       </c>
@@ -9135,7 +9149,7 @@
         <v>1.8273457172427501</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>342</v>
       </c>
@@ -9185,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>343</v>
       </c>
@@ -9235,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>341</v>
       </c>
@@ -9285,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>340</v>
       </c>
@@ -9335,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>339</v>
       </c>
@@ -9385,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>337</v>
       </c>
@@ -9435,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>338</v>
       </c>
@@ -9485,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>336</v>
       </c>
@@ -9535,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>335</v>
       </c>
@@ -9635,7 +9649,7 @@
         <v>11.642535858844299</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>334</v>
       </c>
@@ -9735,7 +9749,7 @@
         <v>-22.894427583381059</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>333</v>
       </c>
@@ -9785,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>332</v>
       </c>
@@ -9835,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>331</v>
       </c>
@@ -9885,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>330</v>
       </c>
@@ -9935,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>326</v>
       </c>
@@ -9985,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>327</v>
       </c>
@@ -10035,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>328</v>
       </c>
@@ -10085,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>329</v>
       </c>
@@ -10185,7 +10199,7 @@
         <v>-49.192592315426928</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>325</v>
       </c>
@@ -10285,7 +10299,7 @@
         <v>5.7766608862849154</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>324</v>
       </c>
@@ -10335,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>322</v>
       </c>
@@ -10385,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>323</v>
       </c>
@@ -10435,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>321</v>
       </c>
@@ -10485,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>320</v>
       </c>
@@ -10635,7 +10649,7 @@
         <v>8.0972698684785911</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>319</v>
       </c>
@@ -10685,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>318</v>
       </c>
@@ -10735,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>317</v>
       </c>
@@ -10785,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>316</v>
       </c>
@@ -10835,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>315</v>
       </c>
@@ -10935,7 +10949,7 @@
         <v>3.1695279008824708</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>314</v>
       </c>
@@ -11035,7 +11049,7 @@
         <v>-3.537385994319266</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>313</v>
       </c>
@@ -11085,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>311</v>
       </c>
@@ -11135,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>312</v>
       </c>
@@ -11185,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>308</v>
       </c>
@@ -11235,7 +11249,7 @@
         <v>-19.5</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>309</v>
       </c>
@@ -11285,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>310</v>
       </c>
@@ -11335,7 +11349,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>307</v>
       </c>
@@ -11385,7 +11399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>306</v>
       </c>
@@ -11435,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>305</v>
       </c>
@@ -11535,7 +11549,7 @@
         <v>9.6853592258423049</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>304</v>
       </c>
@@ -11585,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>303</v>
       </c>
@@ -11685,7 +11699,7 @@
         <v>7.3607291643551784</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>302</v>
       </c>
@@ -11785,7 +11799,7 @@
         <v>4.6108828943653322</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>301</v>
       </c>
@@ -11835,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>300</v>
       </c>
@@ -11885,7 +11899,7 @@
         <v>-1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>299</v>
       </c>
@@ -11935,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>298</v>
       </c>
@@ -11985,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>296</v>
       </c>
@@ -12035,7 +12049,7 @@
         <v>-31.84999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>297</v>
       </c>
@@ -12085,7 +12099,7 @@
         <v>31.850000000000019</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>295</v>
       </c>
@@ -12135,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>293</v>
       </c>
@@ -12185,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>294</v>
       </c>
@@ -12235,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>292</v>
       </c>
@@ -12285,7 +12299,7 @@
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>291</v>
       </c>
@@ -12335,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>287</v>
       </c>
@@ -12385,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>288</v>
       </c>
@@ -12435,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>289</v>
       </c>
@@ -12485,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>290</v>
       </c>
@@ -12535,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>285</v>
       </c>
@@ -12585,7 +12599,7 @@
         <v>-34.450000000000003</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>286</v>
       </c>
@@ -12685,7 +12699,7 @@
         <v>34.048554354864081</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>283</v>
       </c>
@@ -12735,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>284</v>
       </c>
@@ -12785,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>282</v>
       </c>
@@ -12835,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>281</v>
       </c>
@@ -12885,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>279</v>
       </c>
@@ -12935,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>280</v>
       </c>
@@ -12985,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>278</v>
       </c>
@@ -13035,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>276</v>
       </c>
@@ -13085,7 +13099,7 @@
         <v>27.524137931034218</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>277</v>
       </c>
@@ -13135,7 +13149,7 @@
         <v>-27.5241379310342</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>275</v>
       </c>
@@ -13185,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>273</v>
       </c>
@@ -13235,7 +13249,7 @@
         <v>-4.875</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>274</v>
       </c>
@@ -13285,7 +13299,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>272</v>
       </c>
@@ -13335,7 +13349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>271</v>
       </c>
@@ -13385,7 +13399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>270</v>
       </c>
@@ -13435,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>268</v>
       </c>
@@ -13485,7 +13499,7 @@
         <v>-62.725000000000009</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>269</v>
       </c>
@@ -13535,7 +13549,7 @@
         <v>62.724999999999987</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>266</v>
       </c>
@@ -13585,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>267</v>
       </c>
@@ -13635,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>263</v>
       </c>
@@ -13685,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>264</v>
       </c>
@@ -13735,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>265</v>
       </c>
@@ -13785,7 +13799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>262</v>
       </c>
@@ -13935,7 +13949,7 @@
         <v>1.8346496269704029</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>260</v>
       </c>
@@ -13985,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>261</v>
       </c>
@@ -14035,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>259</v>
       </c>
@@ -14135,7 +14149,7 @@
         <v>-7.5672268644091076</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>257</v>
       </c>
@@ -14185,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>258</v>
       </c>
@@ -14235,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>256</v>
       </c>
@@ -14285,7 +14299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>255</v>
       </c>
@@ -14335,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>254</v>
       </c>
@@ -14385,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
@@ -14435,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -14535,7 +14549,7 @@
         <v>11.1904992814721</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
@@ -14585,7 +14599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
@@ -14635,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>248</v>
       </c>
@@ -14685,7 +14699,7 @@
         <v>-26.715</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>249</v>
       </c>
@@ -14735,7 +14749,7 @@
         <v>26.714999999999989</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>247</v>
       </c>
@@ -14785,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>246</v>
       </c>
@@ -14885,7 +14899,7 @@
         <v>7.0375762829808934</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>243</v>
       </c>
@@ -14935,7 +14949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>244</v>
       </c>
@@ -14985,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>245</v>
       </c>
@@ -15035,7 +15049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>241</v>
       </c>
@@ -15085,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>242</v>
       </c>
@@ -15135,7 +15149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>239</v>
       </c>
@@ -15185,7 +15199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>240</v>
       </c>
@@ -15285,7 +15299,7 @@
         <v>15.27740033161461</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>236</v>
       </c>
@@ -15335,7 +15349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>237</v>
       </c>
@@ -15385,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>238</v>
       </c>
@@ -15485,7 +15499,7 @@
         <v>10.32944128778621</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>235</v>
       </c>
@@ -15535,7 +15549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>225</v>
       </c>
@@ -15585,7 +15599,7 @@
         <v>74.018749999999997</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>226</v>
       </c>
@@ -15635,7 +15649,7 @@
         <v>68.168750000000003</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>227</v>
       </c>
@@ -15685,7 +15699,7 @@
         <v>64.268749999999997</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>228</v>
       </c>
@@ -15735,7 +15749,7 @@
         <v>61.018749999999997</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>229</v>
       </c>
@@ -15785,7 +15799,7 @@
         <v>-68.981250000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>230</v>
       </c>
@@ -15835,7 +15849,7 @@
         <v>-68.331250000000011</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>231</v>
       </c>
@@ -15885,7 +15899,7 @@
         <v>-65.081250000000011</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>232</v>
       </c>
@@ -15935,7 +15949,7 @@
         <v>-65.081250000000011</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>233</v>
       </c>
@@ -15985,7 +15999,7 @@
         <v>-64.431250000000006</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>234</v>
       </c>
@@ -16085,7 +16099,7 @@
         <v>15.518750000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>224</v>
       </c>
@@ -16185,7 +16199,7 @@
         <v>1.705683019689801</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>222</v>
       </c>
@@ -16235,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>223</v>
       </c>
@@ -16285,7 +16299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>220</v>
       </c>
@@ -16335,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>221</v>
       </c>
@@ -16385,7 +16399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>219</v>
       </c>
@@ -16435,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>216</v>
       </c>
@@ -16485,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>217</v>
       </c>
@@ -16535,7 +16549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>218</v>
       </c>
@@ -16585,7 +16599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>215</v>
       </c>
@@ -16635,7 +16649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>214</v>
       </c>
@@ -16685,7 +16699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>213</v>
       </c>
@@ -16735,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>211</v>
       </c>
@@ -16785,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>212</v>
       </c>
@@ -16835,7 +16849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>210</v>
       </c>
@@ -16885,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>209</v>
       </c>
@@ -16935,7 +16949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>208</v>
       </c>
@@ -16985,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>207</v>
       </c>
@@ -17035,7 +17049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>205</v>
       </c>
@@ -17085,7 +17099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>206</v>
       </c>
@@ -17135,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>204</v>
       </c>
@@ -17185,7 +17199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>203</v>
       </c>
@@ -17285,7 +17299,7 @@
         <v>24.007238424538599</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>199</v>
       </c>
@@ -17335,7 +17349,7 @@
         <v>73.125</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>200</v>
       </c>
@@ -17385,7 +17399,7 @@
         <v>-75.724999999999994</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>201</v>
       </c>
@@ -17435,7 +17449,7 @@
         <v>13.325000000000021</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>202</v>
       </c>
@@ -17485,7 +17499,7 @@
         <v>-10.724999999999991</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>198</v>
       </c>
@@ -17535,7 +17549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>197</v>
       </c>
@@ -17635,7 +17649,7 @@
         <v>7.0075254113627068</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>196</v>
       </c>
@@ -17685,7 +17699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>195</v>
       </c>
@@ -17735,7 +17749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>193</v>
       </c>
@@ -17785,7 +17799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>194</v>
       </c>
@@ -17935,7 +17949,7 @@
         <v>31.09016231768538</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>192</v>
       </c>
@@ -17985,7 +17999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>189</v>
       </c>
@@ -18035,7 +18049,7 @@
         <v>-70.633333333333283</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>190</v>
       </c>
@@ -18085,7 +18099,7 @@
         <v>3.466666666666725</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>191</v>
       </c>
@@ -18135,7 +18149,7 @@
         <v>67.166666666666714</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>188</v>
       </c>
@@ -18185,7 +18199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>187</v>
       </c>
@@ -18235,7 +18249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>186</v>
       </c>
@@ -18335,7 +18349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>185</v>
       </c>
@@ -18385,7 +18399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>184</v>
       </c>
@@ -18435,7 +18449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>182</v>
       </c>
@@ -18485,7 +18499,7 @@
         <v>-64.577500000000015</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>183</v>
       </c>
@@ -18535,7 +18549,7 @@
         <v>64.577499999999986</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>181</v>
       </c>
@@ -18585,7 +18599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>180</v>
       </c>
@@ -18635,7 +18649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>179</v>
       </c>
@@ -18685,7 +18699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>178</v>
       </c>
@@ -18785,7 +18799,7 @@
         <v>15.200787626035289</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>177</v>
       </c>
@@ -18835,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>174</v>
       </c>
@@ -18885,7 +18899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>175</v>
       </c>
@@ -18935,7 +18949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>176</v>
       </c>
@@ -18985,7 +18999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>173</v>
       </c>
@@ -19035,7 +19049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>172</v>
       </c>
@@ -19085,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>169</v>
       </c>
@@ -19135,7 +19149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>170</v>
       </c>
@@ -19185,7 +19199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>171</v>
       </c>
@@ -19235,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>166</v>
       </c>
@@ -19285,7 +19299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>167</v>
       </c>
@@ -19335,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>168</v>
       </c>
@@ -19385,7 +19399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>163</v>
       </c>
@@ -19435,7 +19449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>164</v>
       </c>
@@ -19535,7 +19549,7 @@
         <v>-25.231852351965301</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>162</v>
       </c>
@@ -19585,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>160</v>
       </c>
@@ -19635,7 +19649,7 @@
         <v>47.449999999999989</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>161</v>
       </c>
@@ -19735,7 +19749,7 @@
         <v>25.77442248994041</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>159</v>
       </c>
@@ -19785,7 +19799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>157</v>
       </c>
@@ -19835,7 +19849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>158</v>
       </c>
@@ -19885,7 +19899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>155</v>
       </c>
@@ -19935,7 +19949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>156</v>
       </c>
@@ -19985,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>154</v>
       </c>
@@ -20035,7 +20049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>152</v>
       </c>
@@ -20085,7 +20099,7 @@
         <v>-50.374999999999993</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>153</v>
       </c>
@@ -20185,7 +20199,7 @@
         <v>-1.6435212798292009</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>151</v>
       </c>
@@ -20235,7 +20249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>150</v>
       </c>
@@ -20285,7 +20299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>148</v>
       </c>
@@ -20335,7 +20349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>149</v>
       </c>
@@ -20385,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>147</v>
       </c>
@@ -20485,7 +20499,7 @@
         <v>-2.668437544907988</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>146</v>
       </c>
@@ -20535,7 +20549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>145</v>
       </c>
@@ -20585,7 +20599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>141</v>
       </c>
@@ -20635,7 +20649,7 @@
         <v>50.049999999999983</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>143</v>
       </c>
@@ -20685,7 +20699,7 @@
         <v>-50.050000000000011</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>144</v>
       </c>
@@ -20785,7 +20799,7 @@
         <v>-2.484067553640386</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>139</v>
       </c>
@@ -20835,7 +20849,7 @@
         <v>6.8249999999999886</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>140</v>
       </c>
@@ -20885,7 +20899,7 @@
         <v>-6.8250000000000171</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>136</v>
       </c>
@@ -20935,7 +20949,7 @@
         <v>54.204022988505898</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>137</v>
       </c>
@@ -20985,7 +20999,7 @@
         <v>48.241954022988303</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>138</v>
       </c>
@@ -21035,7 +21049,7 @@
         <v>-102.44597701149409</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>135</v>
       </c>
@@ -21085,7 +21099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>134</v>
       </c>
@@ -21135,7 +21149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>133</v>
       </c>
@@ -21185,7 +21199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>132</v>
       </c>
@@ -21235,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>131</v>
       </c>
@@ -21285,7 +21299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>130</v>
       </c>
@@ -21335,7 +21349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>128</v>
       </c>
@@ -21385,7 +21399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>129</v>
       </c>
@@ -21435,7 +21449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>127</v>
       </c>
@@ -21485,7 +21499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>126</v>
       </c>
@@ -21585,7 +21599,7 @@
         <v>-11.46611072478561</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>125</v>
       </c>
@@ -21635,7 +21649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>123</v>
       </c>
@@ -21685,7 +21699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>124</v>
       </c>
@@ -21735,7 +21749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>122</v>
       </c>
@@ -21785,7 +21799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>120</v>
       </c>
@@ -21835,7 +21849,7 @@
         <v>28.600000000000019</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>121</v>
       </c>
@@ -21885,7 +21899,7 @@
         <v>-28.599999999999991</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>119</v>
       </c>
@@ -21935,7 +21949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>117</v>
       </c>
@@ -21985,7 +21999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>118</v>
       </c>
@@ -22035,7 +22049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>115</v>
       </c>
@@ -22085,7 +22099,7 @@
         <v>5.8500000000000227</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>116</v>
       </c>
@@ -22135,7 +22149,7 @@
         <v>-5.8499999999999943</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>114</v>
       </c>
@@ -22185,7 +22199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>111</v>
       </c>
@@ -22235,7 +22249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>112</v>
       </c>
@@ -22285,7 +22299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>113</v>
       </c>
@@ -22335,7 +22349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>110</v>
       </c>
@@ -22385,7 +22399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>109</v>
       </c>
@@ -22435,7 +22449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>108</v>
       </c>
@@ -22485,7 +22499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>107</v>
       </c>
@@ -22535,7 +22549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>106</v>
       </c>
@@ -22585,7 +22599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>96</v>
       </c>
@@ -22635,7 +22649,7 @@
         <v>63.212500000000027</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>97</v>
       </c>
@@ -22685,7 +22699,7 @@
         <v>59.3125</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>98</v>
       </c>
@@ -22735,7 +22749,7 @@
         <v>-73.287499999999994</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>99</v>
       </c>
@@ -22785,7 +22799,7 @@
         <v>44.362500000000011</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>100</v>
       </c>
@@ -22835,7 +22849,7 @@
         <v>26.162500000000019</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>101</v>
       </c>
@@ -22885,7 +22899,7 @@
         <v>-43.387499999999989</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>102</v>
       </c>
@@ -22935,7 +22949,7 @@
         <v>-42.737499999999983</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>103</v>
       </c>
@@ -22985,7 +22999,7 @@
         <v>-37.537499999999987</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>104</v>
       </c>
@@ -23035,7 +23049,7 @@
         <v>-33.637499999999989</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>105</v>
       </c>
@@ -23085,7 +23099,7 @@
         <v>11.86250000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>95</v>
       </c>
@@ -23135,7 +23149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>94</v>
       </c>
@@ -23185,7 +23199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>92</v>
       </c>
@@ -23235,7 +23249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>93</v>
       </c>
@@ -23285,7 +23299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>88</v>
       </c>
@@ -23335,7 +23349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>91</v>
       </c>
@@ -23385,7 +23399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>87</v>
       </c>
@@ -23435,7 +23449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>86</v>
       </c>
@@ -23485,7 +23499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>85</v>
       </c>
@@ -23535,7 +23549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>83</v>
       </c>
@@ -23585,7 +23599,7 @@
         <v>4.5500000000000114</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>84</v>
       </c>
@@ -23635,7 +23649,7 @@
         <v>-4.5500000000000114</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>82</v>
       </c>
@@ -23685,7 +23699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>81</v>
       </c>
@@ -23735,7 +23749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>79</v>
       </c>
@@ -23785,7 +23799,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>80</v>
       </c>
@@ -23835,7 +23849,7 @@
         <v>-3.25</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>68</v>
       </c>
@@ -23885,7 +23899,7 @@
         <v>52.974999999999973</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>70</v>
       </c>
@@ -23935,7 +23949,7 @@
         <v>-56.225000000000023</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>71</v>
       </c>
@@ -23985,7 +23999,7 @@
         <v>-43.875</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>72</v>
       </c>
@@ -24035,7 +24049,7 @@
         <v>-43.225000000000023</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>73</v>
       </c>
@@ -24085,7 +24099,7 @@
         <v>-37.375</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>74</v>
       </c>
@@ -24135,7 +24149,7 @@
         <v>-34.125</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>75</v>
       </c>
@@ -24185,7 +24199,7 @@
         <v>47.125</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>76</v>
       </c>
@@ -24235,7 +24249,7 @@
         <v>36.724999999999987</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>77</v>
       </c>
@@ -24285,7 +24299,7 @@
         <v>34.125</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>78</v>
       </c>
@@ -24335,7 +24349,7 @@
         <v>15.274999999999981</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>67</v>
       </c>
@@ -24385,7 +24399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>66</v>
       </c>
@@ -24435,7 +24449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>65</v>
       </c>
@@ -24485,7 +24499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>64</v>
       </c>
@@ -24535,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>63</v>
       </c>
@@ -24585,7 +24599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>62</v>
       </c>
@@ -24635,7 +24649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>60</v>
       </c>
@@ -24685,7 +24699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>57</v>
       </c>
@@ -24735,7 +24749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>54</v>
       </c>
@@ -24785,7 +24799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>53</v>
       </c>
@@ -24835,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>49</v>
       </c>
@@ -24885,7 +24899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>48</v>
       </c>
@@ -24935,7 +24949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>47</v>
       </c>
@@ -24985,7 +24999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>45</v>
       </c>
@@ -25035,7 +25049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>44</v>
       </c>
@@ -25085,7 +25099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>43</v>
       </c>
@@ -25135,7 +25149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>42</v>
       </c>
@@ -25185,7 +25199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>41</v>
       </c>
@@ -25235,7 +25249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>40</v>
       </c>
@@ -25285,7 +25299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>39</v>
       </c>
@@ -25335,7 +25349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>37</v>
       </c>
@@ -25385,7 +25399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>36</v>
       </c>
@@ -25435,7 +25449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>34</v>
       </c>
@@ -25485,7 +25499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>33</v>
       </c>
@@ -25535,7 +25549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>460</v>
       </c>
@@ -25585,7 +25599,7 @@
         <v>-86.006825938570046</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>461</v>
       </c>
@@ -25635,7 +25649,7 @@
         <v>181.56996587030901</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>462</v>
       </c>
@@ -25685,7 +25699,7 @@
         <v>124.2320819112601</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>463</v>
       </c>
@@ -25735,7 +25749,7 @@
         <v>-219.79522184300001</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>32</v>
       </c>
@@ -25785,7 +25799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>31</v>
       </c>
@@ -25835,7 +25849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>28</v>
       </c>
@@ -25885,7 +25899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>30</v>
       </c>
@@ -25935,7 +25949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>25</v>
       </c>
@@ -25985,7 +25999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>24</v>
       </c>
@@ -26035,7 +26049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>16</v>
       </c>
@@ -26086,7 +26100,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L482" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="J1:J482" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Test"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P482">
     <sortCondition ref="I1:I482"/>
   </sortState>
@@ -47179,8 +47199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C66DE3A-ED44-4771-AA71-4D35A35E40D7}">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
